--- a/Workspace/Reto Gärtner/Spannungsversorgung/Stromverbrauch.xlsx
+++ b/Workspace/Reto Gärtner/Spannungsversorgung/Stromverbrauch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgaer\Google Drive\Fachhochschule\4.Semester\pro4E\gitHub\pro4e\Workspace\Reto Gärtner\Spannungsversorgung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9C5555-4C62-4943-A2CE-B3D1B55AD7A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B4FC47-912A-4A73-997F-54636C8C8344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Bluetooth Modul</t>
   </si>
   <si>
-    <t>14.4V</t>
-  </si>
-  <si>
     <t>Motor</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Last 5V DC/DC Wandler</t>
+  </si>
+  <si>
+    <t>14.8V</t>
   </si>
 </sst>
 </file>
@@ -104,8 +104,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -167,9 +167,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -453,7 +453,7 @@
   <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -476,25 +476,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -512,7 +512,7 @@
         <v>0.03</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="2">
         <v>0.5</v>
@@ -540,7 +540,7 @@
         <v>1.15E-4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2">
         <v>7.7999999999999999E-4</v>
@@ -558,28 +558,28 @@
         <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="D6" s="1">
         <v>93</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>3.72</v>
+        <v>5.58</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1">
         <f>E11</f>
-        <v>3.7934619999999999</v>
+        <v>5.8017320000000012</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="J6" s="1">
         <f>H6*I6</f>
-        <v>3.7934619999999999</v>
+        <v>5.8017320000000012</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -597,18 +597,18 @@
         <v>0.03</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="9">
         <f>SUM(J4:J6)</f>
-        <v>4.2942419999999997</v>
+        <v>6.302512000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
         <v>1.2199999999999999E-3</v>
@@ -623,33 +623,33 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>3.6999999999999999E-4</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>3.6999999999999999E-4</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
         <f>E18</f>
-        <v>1.1827000000000001E-2</v>
+        <v>0.160027</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>1.1827000000000001E-2</v>
+        <v>0.160027</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -660,7 +660,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="7">
         <f>SUM(E4:E10)</f>
-        <v>3.7934619999999999</v>
+        <v>5.8017320000000012</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -673,7 +673,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -681,33 +681,33 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2">
-        <v>1.8E-3</v>
+        <v>0.15</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="2">
         <f>C15*D15</f>
-        <v>1.8E-3</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2">
         <v>2.6999999999999999E-5</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2">
         <v>0.01</v>
@@ -737,13 +737,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="8">
         <f>SUM(E15:E17)</f>
-        <v>1.1827000000000001E-2</v>
+        <v>0.160027</v>
       </c>
     </row>
   </sheetData>
